--- a/app/data/params.xlsx
+++ b/app/data/params.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8159A11B-F480-4CBE-8256-4255CBCC3C8E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -370,8 +376,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +440,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -480,7 +494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,9 +526,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,6 +578,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -721,14 +771,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -864,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -929,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -958,7 +1010,7 @@
         <v>120</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>850</v>
@@ -997,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1026,7 +1078,7 @@
         <v>3000</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>850</v>
@@ -1065,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1130,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1195,7 +1247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1263,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1331,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1399,7 +1451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1467,7 +1519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1535,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1600,7 +1652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1665,7 +1717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1730,7 +1782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1795,7 +1847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1860,7 +1912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1925,7 +1977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1990,7 +2042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2055,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2120,7 +2172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2188,7 +2240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2256,7 +2308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2324,7 +2376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2392,7 +2444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2460,7 +2512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2528,7 +2580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2596,7 +2648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2664,7 +2716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2732,7 +2784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2800,7 +2852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2868,7 +2920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2936,7 +2988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3001,7 +3053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3066,7 +3118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3131,7 +3183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3196,7 +3248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3225,7 +3277,7 @@
         <v>120</v>
       </c>
       <c r="J38">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>850</v>
@@ -3264,7 +3316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3329,7 +3381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3394,7 +3446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3423,7 +3475,7 @@
         <v>120</v>
       </c>
       <c r="J41">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>850</v>
@@ -3462,7 +3514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3527,7 +3579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3595,7 +3647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3663,7 +3715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3728,7 +3780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3793,7 +3845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3855,7 +3907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3920,7 +3972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3985,7 +4037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4053,7 +4105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4121,7 +4173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4189,7 +4241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4257,7 +4309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4325,7 +4377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4393,7 +4445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4458,7 +4510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4523,7 +4575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4594,7 +4646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>

--- a/app/data/params.xlsx
+++ b/app/data/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8159A11B-F480-4CBE-8256-4255CBCC3C8E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85225932-14D6-460A-9B26-C302B7C858E9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,11 +774,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="75.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -1633,8 +1636,11 @@
       <c r="P13">
         <v>840</v>
       </c>
-      <c r="S13">
-        <v>90</v>
+      <c r="Q13">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>50</v>
       </c>
       <c r="T13">
         <v>40</v>

--- a/app/data/params.xlsx
+++ b/app/data/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85225932-14D6-460A-9B26-C302B7C858E9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BA55D8-ADC3-4AAD-AEC7-156E382B0916}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,11 +1030,8 @@
       <c r="P4">
         <v>288</v>
       </c>
-      <c r="Q4">
-        <v>25</v>
-      </c>
-      <c r="R4">
-        <v>50</v>
+      <c r="S4">
+        <v>90</v>
       </c>
       <c r="T4">
         <v>50</v>
@@ -1098,11 +1095,8 @@
       <c r="P5">
         <v>360</v>
       </c>
-      <c r="Q5">
-        <v>25</v>
-      </c>
-      <c r="R5">
-        <v>50</v>
+      <c r="S5">
+        <v>90</v>
       </c>
       <c r="T5">
         <v>50</v>

--- a/app/data/params.xlsx
+++ b/app/data/params.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BA55D8-ADC3-4AAD-AEC7-156E382B0916}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E50661-0CBA-4E78-B825-EC3A452A7229}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -774,13 +774,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -1498,7 +1499,7 @@
         <v>25</v>
       </c>
       <c r="R11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T11">
         <v>40</v>
@@ -1566,7 +1567,7 @@
         <v>25</v>
       </c>
       <c r="R12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T12">
         <v>40</v>
@@ -2698,7 +2699,7 @@
         <v>25</v>
       </c>
       <c r="R29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T29">
         <v>40</v>
@@ -2766,7 +2767,7 @@
         <v>25</v>
       </c>
       <c r="R30">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T30">
         <v>40</v>
@@ -2834,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="R31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T31">
         <v>40</v>
@@ -2902,7 +2903,7 @@
         <v>25</v>
       </c>
       <c r="R32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T32">
         <v>40</v>
@@ -2970,7 +2971,7 @@
         <v>25</v>
       </c>
       <c r="R33">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T33">
         <v>40</v>
@@ -3629,7 +3630,7 @@
         <v>25</v>
       </c>
       <c r="R43">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T43">
         <v>40</v>
@@ -4080,12 +4081,6 @@
       <c r="N50" t="s">
         <v>115</v>
       </c>
-      <c r="Q50">
-        <v>20</v>
-      </c>
-      <c r="R50">
-        <v>20</v>
-      </c>
       <c r="S50">
         <v>120</v>
       </c>
@@ -4359,7 +4354,7 @@
         <v>25</v>
       </c>
       <c r="R54">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T54">
         <v>40</v>
@@ -4427,7 +4422,7 @@
         <v>25</v>
       </c>
       <c r="R55">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T55">
         <v>40</v>
@@ -4621,12 +4616,6 @@
       <c r="P58">
         <v>850</v>
       </c>
-      <c r="Q58">
-        <v>20</v>
-      </c>
-      <c r="R58">
-        <v>20</v>
-      </c>
       <c r="S58">
         <v>120</v>
       </c>
@@ -4691,12 +4680,6 @@
       </c>
       <c r="P59">
         <v>850</v>
-      </c>
-      <c r="Q59">
-        <v>20</v>
-      </c>
-      <c r="R59">
-        <v>20</v>
       </c>
       <c r="S59">
         <v>120</v>

--- a/app/data/params.xlsx
+++ b/app/data/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\code\git\2020.10-umalat\umalat\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E50661-0CBA-4E78-B825-EC3A452A7229}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B450017-5603-4320-8574-8FA9390DDEE8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,9 +340,6 @@
     <t>Aventino</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>Метро</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>САККАРДО</t>
+  </si>
+  <si>
+    <t>Терка</t>
   </si>
 </sst>
 </file>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,7 +896,7 @@
         <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P2">
         <v>1020</v>
@@ -961,7 +961,7 @@
         <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P3">
         <v>1020</v>
@@ -1002,7 +1002,7 @@
         <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
         <v>91</v>
@@ -1026,13 +1026,10 @@
         <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P4">
         <v>288</v>
-      </c>
-      <c r="S4">
-        <v>90</v>
       </c>
       <c r="T4">
         <v>50</v>
@@ -1067,7 +1064,7 @@
         <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>91</v>
@@ -1091,13 +1088,10 @@
         <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P5">
         <v>360</v>
-      </c>
-      <c r="S5">
-        <v>90</v>
       </c>
       <c r="T5">
         <v>50</v>
@@ -1156,7 +1150,7 @@
         <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P6">
         <v>360</v>
@@ -1221,7 +1215,7 @@
         <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P7">
         <v>1020</v>
@@ -1286,7 +1280,7 @@
         <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P8">
         <v>960</v>
@@ -1354,7 +1348,7 @@
         <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P9">
         <v>1200</v>
@@ -1422,7 +1416,7 @@
         <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P10">
         <v>1200</v>
@@ -1490,13 +1484,13 @@
         <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P11">
         <v>1020</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R11">
         <v>20</v>
@@ -1558,13 +1552,13 @@
         <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12">
         <v>876</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R12">
         <v>20</v>
@@ -1626,7 +1620,7 @@
         <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P13">
         <v>840</v>
@@ -1694,7 +1688,7 @@
         <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P14">
         <v>1020</v>
@@ -1759,7 +1753,7 @@
         <v>82</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P15">
         <v>728</v>
@@ -1824,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16">
         <v>1020</v>
@@ -1889,7 +1883,7 @@
         <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P17">
         <v>1020</v>
@@ -1954,7 +1948,7 @@
         <v>82</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P18">
         <v>1020</v>
@@ -2019,7 +2013,7 @@
         <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P19">
         <v>463</v>
@@ -2084,7 +2078,7 @@
         <v>82</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P20">
         <v>463</v>
@@ -2149,7 +2143,7 @@
         <v>82</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P21">
         <v>463</v>
@@ -2214,7 +2208,7 @@
         <v>82</v>
       </c>
       <c r="N22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P22">
         <v>600</v>
@@ -2282,7 +2276,7 @@
         <v>82</v>
       </c>
       <c r="N23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P23">
         <v>1200</v>
@@ -2350,7 +2344,7 @@
         <v>82</v>
       </c>
       <c r="N24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P24">
         <v>960</v>
@@ -2418,7 +2412,7 @@
         <v>82</v>
       </c>
       <c r="N25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P25">
         <v>960</v>
@@ -2486,7 +2480,7 @@
         <v>82</v>
       </c>
       <c r="N26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P26">
         <v>960</v>
@@ -2554,7 +2548,7 @@
         <v>82</v>
       </c>
       <c r="N27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P27">
         <v>960</v>
@@ -2622,7 +2616,7 @@
         <v>82</v>
       </c>
       <c r="N28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P28">
         <v>1200</v>
@@ -2690,13 +2684,13 @@
         <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P29">
         <v>876</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R29">
         <v>20</v>
@@ -2758,13 +2752,13 @@
         <v>82</v>
       </c>
       <c r="N30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P30">
         <v>702</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R30">
         <v>20</v>
@@ -2826,13 +2820,13 @@
         <v>82</v>
       </c>
       <c r="N31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P31">
         <v>876</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R31">
         <v>20</v>
@@ -2894,13 +2888,13 @@
         <v>82</v>
       </c>
       <c r="N32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P32">
         <v>702</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R32">
         <v>20</v>
@@ -2962,13 +2956,13 @@
         <v>82</v>
       </c>
       <c r="N33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P33">
         <v>876</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R33">
         <v>20</v>
@@ -3030,7 +3024,7 @@
         <v>82</v>
       </c>
       <c r="N34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P34">
         <v>728</v>
@@ -3095,7 +3089,7 @@
         <v>82</v>
       </c>
       <c r="N35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P35">
         <v>1020</v>
@@ -3160,7 +3154,7 @@
         <v>82</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P36">
         <v>1020</v>
@@ -3225,7 +3219,7 @@
         <v>82</v>
       </c>
       <c r="N37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P37">
         <v>1020</v>
@@ -3266,7 +3260,7 @@
         <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="G38" t="s">
         <v>91</v>
@@ -3290,16 +3284,10 @@
         <v>81</v>
       </c>
       <c r="N38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P38">
         <v>288</v>
-      </c>
-      <c r="Q38">
-        <v>25</v>
-      </c>
-      <c r="R38">
-        <v>50</v>
       </c>
       <c r="T38">
         <v>50</v>
@@ -3358,7 +3346,7 @@
         <v>82</v>
       </c>
       <c r="N39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P39">
         <v>1020</v>
@@ -3423,7 +3411,7 @@
         <v>82</v>
       </c>
       <c r="N40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P40">
         <v>1020</v>
@@ -3464,7 +3452,7 @@
         <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="G41" t="s">
         <v>91</v>
@@ -3488,16 +3476,10 @@
         <v>81</v>
       </c>
       <c r="N41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P41">
         <v>288</v>
-      </c>
-      <c r="Q41">
-        <v>25</v>
-      </c>
-      <c r="R41">
-        <v>50</v>
       </c>
       <c r="T41">
         <v>50</v>
@@ -3556,7 +3538,7 @@
         <v>82</v>
       </c>
       <c r="N42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P42">
         <v>463</v>
@@ -3621,13 +3603,13 @@
         <v>82</v>
       </c>
       <c r="N43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P43">
         <v>1020</v>
       </c>
       <c r="Q43">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R43">
         <v>20</v>
@@ -3689,7 +3671,7 @@
         <v>82</v>
       </c>
       <c r="N44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P44">
         <v>960</v>
@@ -3757,7 +3739,7 @@
         <v>82</v>
       </c>
       <c r="N45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P45">
         <v>463</v>
@@ -3822,7 +3804,7 @@
         <v>82</v>
       </c>
       <c r="N46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P46">
         <v>1020</v>
@@ -3869,7 +3851,7 @@
         <v>91</v>
       </c>
       <c r="H47" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I47">
         <v>200</v>
@@ -3887,7 +3869,7 @@
         <v>82</v>
       </c>
       <c r="N47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S47">
         <v>90</v>
@@ -3949,7 +3931,7 @@
         <v>82</v>
       </c>
       <c r="N48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P48">
         <v>1020</v>
@@ -4014,7 +3996,7 @@
         <v>82</v>
       </c>
       <c r="N49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P49">
         <v>1020</v>
@@ -4061,7 +4043,7 @@
         <v>91</v>
       </c>
       <c r="H50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I50">
         <v>700</v>
@@ -4079,7 +4061,7 @@
         <v>82</v>
       </c>
       <c r="N50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S50">
         <v>120</v>
@@ -4141,7 +4123,7 @@
         <v>82</v>
       </c>
       <c r="N51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P51">
         <v>1000</v>
@@ -4191,7 +4173,7 @@
         <v>92</v>
       </c>
       <c r="H52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I52">
         <v>100</v>
@@ -4209,7 +4191,7 @@
         <v>82</v>
       </c>
       <c r="N52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P52">
         <v>960</v>
@@ -4277,7 +4259,7 @@
         <v>82</v>
       </c>
       <c r="N53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P53">
         <v>1200</v>
@@ -4327,7 +4309,7 @@
         <v>92</v>
       </c>
       <c r="H54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I54">
         <v>100</v>
@@ -4345,13 +4327,13 @@
         <v>82</v>
       </c>
       <c r="N54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P54">
         <v>960</v>
       </c>
       <c r="Q54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R54">
         <v>20</v>
@@ -4413,13 +4395,13 @@
         <v>82</v>
       </c>
       <c r="N55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P55">
         <v>876</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <v>20</v>
@@ -4481,7 +4463,7 @@
         <v>82</v>
       </c>
       <c r="N56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P56">
         <v>463</v>
@@ -4546,7 +4528,7 @@
         <v>82</v>
       </c>
       <c r="N57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P57">
         <v>850</v>
@@ -4611,7 +4593,7 @@
         <v>82</v>
       </c>
       <c r="N58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P58">
         <v>850</v>
@@ -4676,7 +4658,7 @@
         <v>82</v>
       </c>
       <c r="N59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P59">
         <v>850</v>

--- a/app/data/params.xlsx
+++ b/app/data/params.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="121">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -371,6 +371,18 @@
   </si>
   <si>
     <t xml:space="preserve">Качокавалло "Unagrande" (ОК), 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">П/ф Качокавалло 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">П/ф Качокавалло 45% большие головки</t>
   </si>
 </sst>
 </file>
@@ -487,10 +499,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K48" activeCellId="0" sqref="K48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4335,7 +4347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -4397,6 +4409,257 @@
         <v>15</v>
       </c>
       <c r="X59" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="X60" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="X62" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="X63" s="0" t="n">
         <v>10</v>
       </c>
     </row>
